--- a/figures/computation_time/computation_time.xlsx
+++ b/figures/computation_time/computation_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10730"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>GiniClust3</t>
   </si>
@@ -43,16 +43,13 @@
     <t>SC3</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>scmap</t>
   </si>
   <si>
     <t>GeneClust-fast</t>
   </si>
   <si>
-    <t>GeneClust-semi</t>
+    <t>GeneClust-ps</t>
   </si>
   <si>
     <t>Guo10000genes</t>
@@ -1070,21 +1067,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="17.7272727272727" customWidth="1"/>
-    <col min="2" max="12" width="12.8181818181818" customWidth="1"/>
-    <col min="13" max="13" width="17.9090909090909" customWidth="1"/>
-    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="2" max="11" width="12.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="17.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,13 +1118,10 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>6.81362164951861</v>
@@ -1157,21 +1151,18 @@
         <v>1.39003481157124</v>
       </c>
       <c r="K2">
-        <v>1.08171747997403</v>
+        <v>18.9119343366474</v>
       </c>
       <c r="L2">
-        <v>18.9119343366474</v>
+        <v>3.56521672010421</v>
       </c>
       <c r="M2">
-        <v>3.56521672010421</v>
-      </c>
-      <c r="N2">
         <v>1229.85804996709</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>9.99676321819425</v>
@@ -1201,21 +1192,18 @@
         <v>1.44455654732883</v>
       </c>
       <c r="K3">
-        <v>1.37503918260336</v>
+        <v>27.0749350022525</v>
       </c>
       <c r="L3">
-        <v>27.0749350022525</v>
+        <v>4.97755347564816</v>
       </c>
       <c r="M3">
-        <v>4.97755347564816</v>
-      </c>
-      <c r="N3">
         <v>2246.33545846911</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>14.8411318045109</v>
@@ -1245,21 +1233,18 @@
         <v>1.73886037431657</v>
       </c>
       <c r="K4">
-        <v>1.63801158964634</v>
+        <v>34.7337269801646</v>
       </c>
       <c r="L4">
-        <v>34.7337269801646</v>
+        <v>6.26949574239552</v>
       </c>
       <c r="M4">
-        <v>6.26949574239552</v>
-      </c>
-      <c r="N4">
         <v>4117.89864321611</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>20.3790283799171</v>
@@ -1289,21 +1274,18 @@
         <v>1.93660112284124</v>
       </c>
       <c r="K5">
-        <v>1.90932605229318</v>
+        <v>42.8877562377602</v>
       </c>
       <c r="L5">
-        <v>42.8877562377602</v>
+        <v>7.61436360515654</v>
       </c>
       <c r="M5">
-        <v>7.61436360515654</v>
-      </c>
-      <c r="N5">
         <v>6245.3507012669</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2.9829205814749</v>
@@ -1333,21 +1315,18 @@
         <v>0.664535608142614</v>
       </c>
       <c r="K6">
-        <v>0.721232058480382</v>
+        <v>9.11060169152915</v>
       </c>
       <c r="L6">
-        <v>9.11060169152915</v>
+        <v>2.81845105439424</v>
       </c>
       <c r="M6">
-        <v>2.81845105439424</v>
-      </c>
-      <c r="N6">
         <v>402.053131551016</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>9.19926204718649</v>
@@ -1377,21 +1356,18 @@
         <v>2.14247077703476</v>
       </c>
       <c r="K7">
-        <v>2.04457703977823</v>
+        <v>38.1908091511577</v>
       </c>
       <c r="L7">
-        <v>38.1908091511577</v>
+        <v>7.76912110857665</v>
       </c>
       <c r="M7">
-        <v>7.76912110857665</v>
-      </c>
-      <c r="N7">
         <v>821.523435871116</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>3.01120633818209</v>
@@ -1421,21 +1397,18 @@
         <v>0.127858160063624</v>
       </c>
       <c r="K8">
-        <v>0.197918746620417</v>
+        <v>5.18174317292869</v>
       </c>
       <c r="L8">
-        <v>5.18174317292869</v>
+        <v>1.97867189161479</v>
       </c>
       <c r="M8">
-        <v>1.97867189161479</v>
-      </c>
-      <c r="N8">
         <v>245.282144237076</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>30.2149196788669</v>
@@ -1465,21 +1438,18 @@
         <v>8.74196465685964</v>
       </c>
       <c r="K9">
-        <v>13.61720671691</v>
+        <v>207.37483231537</v>
       </c>
       <c r="L9">
-        <v>207.37483231537</v>
+        <v>30.0298714525997</v>
       </c>
       <c r="M9">
-        <v>30.0298714525997</v>
-      </c>
-      <c r="N9">
         <v>3320.7253096099</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>6.09643616341054</v>
@@ -1509,21 +1479,18 @@
         <v>1.05343604460359</v>
       </c>
       <c r="K10">
-        <v>1.00889684818685</v>
+        <v>19.6252546869218</v>
       </c>
       <c r="L10">
-        <v>19.6252546869218</v>
+        <v>4.63520093634724</v>
       </c>
       <c r="M10">
-        <v>4.63520093634724</v>
-      </c>
-      <c r="N10">
         <v>569.851291724015</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>2.39957120269537</v>
@@ -1553,15 +1520,12 @@
         <v>0.0579747948795557</v>
       </c>
       <c r="K11">
-        <v>0.0985651984810829</v>
+        <v>3.81020928546786</v>
       </c>
       <c r="L11">
-        <v>3.81020928546786</v>
+        <v>1.8179738856852</v>
       </c>
       <c r="M11">
-        <v>1.8179738856852</v>
-      </c>
-      <c r="N11">
         <v>144.973482195055</v>
       </c>
     </row>
